--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahe\dips-ckm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahe\dips-ckm\surgery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Arketyper.no" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
   <si>
     <t>Type</t>
   </si>
@@ -130,11 +130,6 @@
   </si>
   <si>
     <t>Ikke lastet opp</t>
-  </si>
-  <si>
-    <t>Må lastes opp i arketyper.no etter intern gjennomgang
-Må meldes til godkjenning
-Måoversettes til engelsk.</t>
   </si>
   <si>
     <t>Må lastes opp i arketyper.no etter intern gjennomgang
@@ -383,6 +378,415 @@
   </si>
   <si>
     <r>
+      <t>Ønsket anestesi
+ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anesthesia requested</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tilleggsinformasjon pasient
+ID: a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dditional information patient surgery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tilleggsinformasjon kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>additional information surgery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Operasjonsdetaljer
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>surgery details</t>
+    </r>
+  </si>
+  <si>
+    <t>NYHA heart failure classification</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Må meldes til godkjenning.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ok </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Må importeres på nytt når oversettelsen i arketyper.no er godkjent.</t>
+    </r>
+  </si>
+  <si>
+    <t>ok. 
+Importert med foreløpig norsk oversettelse.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Må meldes til godkjenning.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ok </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Oppdatert versjon må importeres på nytt når oversettelsen er godkjent og tas i bruk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vurdering anestesirisiko
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk assessment anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <t>nb
+en</t>
+  </si>
+  <si>
+    <t>godkjent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Planlagt anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>planned anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Organstatus evaluering kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>organstatus evaluation surgery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Risikofaktor hjerte anestesi
+ID: r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isk factor heart anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Risikofaktor lunge anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk factor lungs anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spesifikke risikofaktorer anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specific risk factors ansthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annen risikofaktor anesthesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other risk factors anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Risikofaktor medisiner kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk factor medicine surgery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Medikamenter ved kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medicine surgery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spesielle behov kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special requirements surgery</t>
+    </r>
+  </si>
+  <si>
+    <t>ok i GIT
+klar til intern gjennomgang</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Risikofaktor andre organer anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk factor other organs anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <t>Må diskuteres internt og nasjonalt
+Ligger i arketyper.no men passer ikke:(</t>
+  </si>
+  <si>
+    <t>Usikker</t>
+  </si>
+  <si>
+    <t>Overfølsomhetsreaksjoner/Allergier</t>
+  </si>
+  <si>
+    <t>Blodtrykk</t>
+  </si>
+  <si>
+    <t>Må lastes opp i arketyper.no 
+Måoversettes til engelsk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hastegrad detaljer
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>priority details</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Omsorgsnivå
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>care-level</t>
+    </r>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning, da den kun brukes for å løse et probleme med å kjøre Classic og Arena samtidig. Dermed kun lokal betydning.</t>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction (behandlingsplan)</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Knivtid
 ID: </t>
     </r>
@@ -395,25 +799,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>surgery time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Omsorgsnivå
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>level of care</t>
-    </r>
+      <t>estimated surgery time</t>
+    </r>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning. Kun midlertidig. Vil bli en activity i procedure request.</t>
+  </si>
+  <si>
+    <t>Viktig informasjon prosedyre</t>
+  </si>
+  <si>
+    <t>nb
+no</t>
   </si>
   <si>
     <r>
@@ -429,96 +826,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>required mediacal personell</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ønsket anestesi
-ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anesthesia requested</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hastegrad
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>priority level</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tilleggsinformasjon pasient
-ID: a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dditional information patient surgery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tilleggsinformasjon kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>additional information surgery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Operasjonsdetaljer
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>surgery details</t>
-    </r>
-  </si>
-  <si>
-    <t>NYHA heart failure classification</t>
+      <t>required medical personell</t>
+    </r>
+  </si>
+  <si>
+    <t>Health risk</t>
+  </si>
+  <si>
+    <t>ok. Oversatt til norsk.</t>
+  </si>
+  <si>
+    <t>Foreligger kun på engelsk.</t>
+  </si>
+  <si>
+    <t>Ikke godkjent.</t>
   </si>
   <si>
     <r>
@@ -538,43 +859,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  ok </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Må importeres på nytt når oversettelsen i arketyper.no er godkjent.</t>
-    </r>
-  </si>
-  <si>
-    <t>ok. 
-Importert med foreløpig norsk oversettelse.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  ok </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -587,232 +872,6 @@
       <t xml:space="preserve">
 Oppdatert versjon må importeres på nytt når oversettelsen er godkjent og tas i bruk.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vurdering anestesirisiko
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk assessment anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <t>nb
-en</t>
-  </si>
-  <si>
-    <t>godkjent</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Planlagt anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planned anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Organstatus evaluering kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>organstatus evaluation surgery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Risikofaktor hjerte anestesi
-ID: r</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isk factor heart anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor lunge anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor lungs anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spesifikke risikofaktorer anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>specific risk factors ansthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Annen risikofaktor anesthesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>other risk factors anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor medisiner kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor medicine surgery</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Medikamenter ved kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>medicine surgery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spesielle behov kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>special requirements surgery</t>
-    </r>
-  </si>
-  <si>
-    <t>ok i GIT
-klar til intern gjennomgang</t>
-  </si>
-  <si>
-    <t>ok i GIT
-må diskuteres i arketypeforum. Trenger vi denne?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor andre organer anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor other organs anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <t>Må diskuteres internt og nasjonalt
-Ligger i arketyper.no men passer ikke:(</t>
-  </si>
-  <si>
-    <t>Usikker</t>
-  </si>
-  <si>
-    <t>Overfølsomhetsreaksjoner/Allergier</t>
-  </si>
-  <si>
-    <t>Blodtrykk</t>
   </si>
 </sst>
 </file>
@@ -911,7 +970,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1245,13 +1304,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1271,15 +1339,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1337,9 +1396,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1379,19 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,9 +1459,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1447,6 +1488,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1730,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,38 +1837,38 @@
     <col min="8" max="16384" width="21.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>58</v>
+      <c r="C2" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -1788,282 +1877,305 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>38</v>
-      </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="23" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:8" s="20" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>43</v>
+      <c r="E4" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="30" t="s">
+    </row>
+    <row r="6" spans="1:8" s="15" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="26" t="s">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="44" t="s">
+      <c r="E15" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="64"/>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="56"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,480 +2185,499 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="64" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="61" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="60" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C5" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="67" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="66"/>
+      <c r="B11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="71"/>
+      <c r="B12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="67" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="68"/>
+      <c r="B22" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E22" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G22" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26" t="s">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26" t="s">
+      <c r="B23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>Type</t>
   </si>
@@ -137,9 +137,6 @@
 Må oversettes til engelsk.</t>
   </si>
   <si>
-    <t>Skal den brukes?</t>
-  </si>
-  <si>
     <t>meldt 05.02.15</t>
   </si>
   <si>
@@ -150,7 +147,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Må meldes til godkjenning.</t>
+      <t>Må meldes til godkjenning</t>
     </r>
     <r>
       <rPr>
@@ -160,28 +157,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  ok </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  ok </t>
+      <t xml:space="preserve">.  ok </t>
     </r>
     <r>
       <rPr>
@@ -197,122 +173,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.  ok </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Oppdatert versjon må importeres og tas i bruk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  ok </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Endring må synkroniseres med arketyper.no og sende på e-post til Silje.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- ok, sendt e-post til Silje 09.02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  ok </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Må meldes endring. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- ok, sendt e-post til Silje 09.02</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Mangler DIPS endring </t>
     </r>
     <r>
@@ -448,43 +308,337 @@
     <t>NYHA heart failure classification</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  ok </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Må importeres på nytt når oversettelsen i arketyper.no er godkjent.</t>
-    </r>
-  </si>
-  <si>
     <t>ok. 
 Importert med foreløpig norsk oversettelse.</t>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Vurdering anestesirisiko
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk assessment anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <t>nb
+en</t>
+  </si>
+  <si>
+    <t>godkjent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Planlagt anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>planned anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Organstatus evaluering kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>organstatus evaluation surgery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Risikofaktor hjerte anestesi
+ID: r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isk factor heart anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Risikofaktor lunge anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk factor lungs anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spesifikke risikofaktorer anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specific risk factors ansthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annen risikofaktor anesthesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other risk factors anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Risikofaktor medisiner kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk factor medicine surgery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Medikamenter ved kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medicine surgery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spesielle behov kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special requirements surgery</t>
+    </r>
+  </si>
+  <si>
+    <t>ok i GIT
+klar til intern gjennomgang</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Risikofaktor andre organer anestesi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk factor other organs anesthesia</t>
+    </r>
+  </si>
+  <si>
+    <t>Må diskuteres internt og nasjonalt
+Ligger i arketyper.no men passer ikke:(</t>
+  </si>
+  <si>
+    <t>Usikker</t>
+  </si>
+  <si>
+    <t>Overfølsomhetsreaksjoner/Allergier</t>
+  </si>
+  <si>
+    <t>Blodtrykk</t>
+  </si>
+  <si>
+    <t>Må lastes opp i arketyper.no 
+Måoversettes til engelsk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hastegrad detaljer
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>priority details</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Omsorgsnivå
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>care-level</t>
+    </r>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning, da den kun brukes for å løse et probleme med å kjøre Classic og Arena samtidig. Dermed kun lokal betydning.</t>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction (behandlingsplan)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Knivtid
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estimated surgery time</t>
+    </r>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning. Kun midlertidig. Vil bli en activity i procedure request.</t>
+  </si>
+  <si>
+    <t>Viktig informasjon prosedyre</t>
+  </si>
+  <si>
+    <t>nb
+no</t>
+  </si>
+  <si>
+    <r>
+      <t>Ønsket helsepersonell
+ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>required medical personell</t>
+    </r>
+  </si>
+  <si>
+    <t>Health risk</t>
+  </si>
+  <si>
+    <t>ok. Oversatt til norsk.</t>
+  </si>
+  <si>
+    <t>Foreligger kun på engelsk.</t>
+  </si>
+  <si>
+    <t>Ikke godkjent.</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
@@ -501,7 +655,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  ok </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -516,340 +670,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Vurdering anestesirisiko
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk assessment anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <t>nb
-en</t>
-  </si>
-  <si>
-    <t>godkjent</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Planlagt anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planned anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Organstatus evaluering kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>organstatus evaluation surgery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Risikofaktor hjerte anestesi
-ID: r</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isk factor heart anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor lunge anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor lungs anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spesifikke risikofaktorer anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>specific risk factors ansthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Annen risikofaktor anesthesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>other risk factors anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor medisiner kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor medicine surgery</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Medikamenter ved kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>medicine surgery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spesielle behov kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>special requirements surgery</t>
-    </r>
-  </si>
-  <si>
-    <t>ok i GIT
-klar til intern gjennomgang</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor andre organer anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor other organs anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <t>Må diskuteres internt og nasjonalt
-Ligger i arketyper.no men passer ikke:(</t>
-  </si>
-  <si>
-    <t>Usikker</t>
-  </si>
-  <si>
-    <t>Overfølsomhetsreaksjoner/Allergier</t>
-  </si>
-  <si>
-    <t>Blodtrykk</t>
-  </si>
-  <si>
-    <t>Må lastes opp i arketyper.no 
-Måoversettes til engelsk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok 
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hastegrad detaljer
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>priority details</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Omsorgsnivå
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>care-level</t>
-    </r>
-  </si>
-  <si>
-    <t>Skal ikke meldes til godkjenning, da den kun brukes for å løse et probleme med å kjøre Classic og Arena samtidig. Dermed kun lokal betydning.</t>
-  </si>
-  <si>
-    <t>Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction (behandlingsplan)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Knivtid
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>estimated surgery time</t>
-    </r>
-  </si>
-  <si>
-    <t>Skal ikke meldes til godkjenning. Kun midlertidig. Vil bli en activity i procedure request.</t>
-  </si>
-  <si>
-    <t>Viktig informasjon prosedyre</t>
-  </si>
-  <si>
-    <t>nb
-no</t>
-  </si>
-  <si>
-    <r>
-      <t>Ønsket helsepersonell
-ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>required medical personell</t>
-    </r>
-  </si>
-  <si>
-    <t>Health risk</t>
-  </si>
-  <si>
-    <t>ok. Oversatt til norsk.</t>
-  </si>
-  <si>
-    <t>Foreligger kun på engelsk.</t>
-  </si>
-  <si>
-    <t>Ikke godkjent.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning.</t>
+    <t>Må importeres på nytt når oversettelsen i arketyper.no er godkjent.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Må meldes endring. </t>
     </r>
     <r>
       <rPr>
@@ -859,19 +684,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Oppdatert versjon må importeres på nytt når oversettelsen er godkjent og tas i bruk.</t>
-    </r>
+      <t>- ok, sendt e-post til Silje 09.02</t>
+    </r>
+  </si>
+  <si>
+    <t>Oppdatert versjon må importeres på nytt når oversettelsen er godkjent og tas i bruk.</t>
+  </si>
+  <si>
+    <t>Oppdatert versjon må importeres og tas i bruk</t>
+  </si>
+  <si>
+    <r>
+      <t>Endring må synkroniseres med arketyper.no og sende på e-post til Silje.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- ok, sendt e-post til Silje 09.02</t>
+    </r>
+  </si>
+  <si>
+    <t>Auscultasjon chest</t>
+  </si>
+  <si>
+    <t>oversatt. Venter på endelig oversettelse fra Tomas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnes ikke. </t>
+  </si>
+  <si>
+    <t>Må sendes til Silje og meldes til godkjenning.</t>
+  </si>
+  <si>
+    <t>Exam</t>
   </si>
 </sst>
 </file>
@@ -970,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1313,13 +1163,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1375,9 +1234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1408,25 +1264,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,9 +1282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1471,13 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1486,55 +1321,103 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1819,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1861,14 +1744,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>53</v>
+      <c r="C2" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -1877,305 +1760,345 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>37</v>
-      </c>
+      <c r="F3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="32"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>20</v>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="E4" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" s="19" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="15" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>85</v>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>86</v>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" s="15" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="48" t="s">
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="44" t="s">
+      <c r="C13" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="F13" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="F14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="C15" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="40" t="s">
+      <c r="B16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="55"/>
+      <c r="G17" s="76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="68"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2193,48 +2116,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="70" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="64" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="64"/>
+    <col min="1" max="1" width="11.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="55" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="61" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:7" s="52" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="54" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>32</v>
@@ -2243,19 +2166,19 @@
         <v>33</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>32</v>
@@ -2264,19 +2187,19 @@
         <v>33</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>32</v>
@@ -2290,99 +2213,99 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>82</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>33</v>
@@ -2394,58 +2317,58 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="67" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
-      <c r="B10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="29" t="s">
+    <row r="10" spans="1:7" s="58" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57"/>
+      <c r="B10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="66"/>
-      <c r="B11" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>82</v>
+      <c r="A11" s="57"/>
+      <c r="B11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="62" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>82</v>
+      <c r="C12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>33</v>
@@ -2457,39 +2380,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="67" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" s="58" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="B13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>82</v>
+        <v>52</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>33</v>
@@ -2502,120 +2425,120 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="D15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="29" t="s">
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G17" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="29" t="s">
+    <row r="18" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G18" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="29" t="s">
+    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G19" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>82</v>
+        <v>48</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>33</v>
@@ -2628,15 +2551,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>33</v>
@@ -2649,35 +2572,35 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>69</v>
+      <c r="C23" s="40" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arketyper.no" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
   <si>
     <t>Type</t>
   </si>
@@ -130,11 +130,6 @@
   </si>
   <si>
     <t>Ikke lastet opp</t>
-  </si>
-  <si>
-    <t>Må lastes opp i arketyper.no etter intern gjennomgang
-Må meldes til godkjenning
-Må oversettes til engelsk.</t>
   </si>
   <si>
     <t>meldt 05.02.15</t>
@@ -312,45 +307,11 @@
 Importert med foreløpig norsk oversettelse.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Vurdering anestesirisiko
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk assessment anesthesia</t>
-    </r>
-  </si>
-  <si>
     <t>nb
 en</t>
   </si>
   <si>
     <t>godkjent</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Planlagt anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planned anesthesia</t>
-    </r>
   </si>
   <si>
     <r>
@@ -371,102 +332,6 @@
   </si>
   <si>
     <r>
-      <t>Risikofaktor hjerte anestesi
-ID: r</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isk factor heart anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor lunge anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor lungs anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spesifikke risikofaktorer anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>specific risk factors ansthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Annen risikofaktor anesthesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>other risk factors anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor medisiner kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor medicine surgery</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Medikamenter ved kirurgi
 ID: </t>
     </r>
@@ -500,42 +365,7 @@
     </r>
   </si>
   <si>
-    <t>ok i GIT
-klar til intern gjennomgang</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risikofaktor andre organer anestesi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risk factor other organs anesthesia</t>
-    </r>
-  </si>
-  <si>
-    <t>Må diskuteres internt og nasjonalt
-Ligger i arketyper.no men passer ikke:(</t>
-  </si>
-  <si>
-    <t>Usikker</t>
-  </si>
-  <si>
-    <t>Overfølsomhetsreaksjoner/Allergier</t>
-  </si>
-  <si>
     <t>Blodtrykk</t>
-  </si>
-  <si>
-    <t>Må lastes opp i arketyper.no 
-Måoversettes til engelsk.</t>
   </si>
   <si>
     <t xml:space="preserve">ok 
@@ -602,9 +432,6 @@
     <t>Skal ikke meldes til godkjenning. Kun midlertidig. Vil bli en activity i procedure request.</t>
   </si>
   <si>
-    <t>Viktig informasjon prosedyre</t>
-  </si>
-  <si>
     <t>nb
 no</t>
   </si>
@@ -722,6 +549,43 @@
   </si>
   <si>
     <t>Exam</t>
+  </si>
+  <si>
+    <t>Evaluering anestesi previsitt
+ID: properative evaluation anesthesia</t>
+  </si>
+  <si>
+    <t>Adverse reaction FHIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnes kun på engelsk. </t>
+  </si>
+  <si>
+    <t>Viktig informasjon prosedyre
+ID: important information procedure</t>
+  </si>
+  <si>
+    <t>Planlagt anestesi
+ID: Planned anesthesia</t>
+  </si>
+  <si>
+    <t>Avklaringer før operasjon anestesi
+ID: preopertaive clarifications</t>
+  </si>
+  <si>
+    <t>Må lastes opp i arketyper.no 
+Må oversettes til engelsk?</t>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction </t>
+  </si>
+  <si>
+    <t>Må lastes opp i arketyper.no 
+Må meldes til godkjenning
+Må oversettes til engelsk.</t>
   </si>
 </sst>
 </file>
@@ -788,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,19 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,7 +1030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1264,19 +1116,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1288,28 +1137,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1352,12 +1195,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1702,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,8 +1587,8 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>47</v>
+      <c r="C2" s="60" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -1760,75 +1597,75 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="32"/>
+      <c r="F3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="31"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="77" t="s">
-        <v>90</v>
+      <c r="E4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>88</v>
+      <c r="B5" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>89</v>
+      <c r="E5" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
-        <v>90</v>
+      <c r="G5" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1839,20 +1676,20 @@
       <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>83</v>
+        <v>34</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1862,8 +1699,8 @@
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>39</v>
+      <c r="C7" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>19</v>
@@ -1872,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="25"/>
     </row>
@@ -1883,8 +1720,8 @@
       <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>47</v>
+      <c r="C8" s="60" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>19</v>
@@ -1893,212 +1730,235 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>78</v>
+      <c r="B9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>79</v>
+      <c r="E9" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C11" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>39</v>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>50</v>
+      <c r="F12" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="D18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="68"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="47"/>
+      <c r="E18" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="63"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2108,56 +1968,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="55" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="55"/>
+    <col min="1" max="1" width="11.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="52" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="52" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:7" s="49" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>32</v>
@@ -2166,19 +2026,19 @@
         <v>33</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
       <c r="B3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>32</v>
@@ -2187,19 +2047,19 @@
         <v>33</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>32</v>
@@ -2209,103 +2069,103 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>75</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>33</v>
@@ -2314,19 +2174,19 @@
         <v>14</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="58" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="57"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="54"/>
       <c r="B10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>33</v>
@@ -2334,41 +2194,41 @@
       <c r="F10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>34</v>
+      <c r="G10" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>33</v>
@@ -2377,63 +2237,63 @@
         <v>14</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="58" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>28</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57"/>
       <c r="B13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>75</v>
+      <c r="F13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D15" s="40" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>33</v>
@@ -2441,41 +2301,41 @@
       <c r="F15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>34</v>
+      <c r="G16" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>60</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>33</v>
@@ -2483,124 +2343,8 @@
       <c r="F17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>62</v>
+      <c r="G17" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="86">
   <si>
     <t>Type</t>
   </si>
@@ -76,9 +76,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>Må meldes til godkjenning.</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -536,16 +533,7 @@
     </r>
   </si>
   <si>
-    <t>Auscultasjon chest</t>
-  </si>
-  <si>
-    <t>oversatt. Venter på endelig oversettelse fra Tomas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finnes ikke. </t>
-  </si>
-  <si>
-    <t>Må sendes til Silje og meldes til godkjenning.</t>
   </si>
   <si>
     <t>Exam</t>
@@ -586,6 +574,17 @@
     <t>Må lastes opp i arketyper.no 
 Må meldes til godkjenning
 Må oversettes til engelsk.</t>
+  </si>
+  <si>
+    <t>Check list</t>
+  </si>
+  <si>
+    <t>Må sendes til Silje og meldes til godkjenning.
+Oppdatert versjon må importeres på nytt når oversettelsen er godkjent og tas i bruk.</t>
+  </si>
+  <si>
+    <t>Kroppsdel
+ID: Bodypart</t>
   </si>
 </sst>
 </file>
@@ -672,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -732,67 +731,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -800,77 +739,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -898,36 +766,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -948,32 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -989,17 +805,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1012,16 +817,22 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1030,7 +841,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1044,217 +855,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,408 +1248,411 @@
     <col min="8" max="16384" width="21.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="F12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" s="19" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" s="15" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="60" t="s">
+      <c r="F13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="60" t="s">
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="F14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="F15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>71</v>
+      <c r="D18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1968,383 +1662,404 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="52" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="52"/>
+    <col min="1" max="1" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="20" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="49" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="G11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="9" t="s">
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="57"/>
-      <c r="B12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="G17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="57"/>
-      <c r="B13" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
-      <c r="B14" s="28" t="s">
+      <c r="G18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="55" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Arketyper.no" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
   <si>
     <t>Type</t>
   </si>
@@ -462,38 +462,6 @@
     <t>Ikke godkjent.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Må meldes til godkjenning.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Oppdatert versjon må importeres på nytt når oversettelsen er godkjent og tas i bruk.</t>
-    </r>
-  </si>
-  <si>
     <t>Må importeres på nytt når oversettelsen i arketyper.no er godkjent.</t>
   </si>
   <si>
@@ -585,6 +553,21 @@
   <si>
     <t>Kroppsdel
 ID: Bodypart</t>
+  </si>
+  <si>
+    <t>Check list medicine</t>
+  </si>
+  <si>
+    <t>Redigeres for tiden</t>
+  </si>
+  <si>
+    <t>Oversatt og endringer foreslått. Må diskuteres internt</t>
+  </si>
+  <si>
+    <t>meldt 07.03.15 med oversettelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meldt 07.03.15 </t>
   </si>
 </sst>
 </file>
@@ -651,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +650,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -939,13 +928,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1230,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1283,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -1322,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>15</v>
@@ -1331,11 +1323,11 @@
         <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1359,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1403,7 +1395,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1423,18 +1415,18 @@
         <v>63</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>62</v>
@@ -1446,83 +1438,85 @@
         <v>63</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="G11" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="F12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>37</v>
@@ -1541,7 +1535,7 @@
     <row r="14" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>37</v>
@@ -1557,9 +1551,10 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>37</v>
@@ -1573,86 +1568,104 @@
       <c r="F15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="F18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,25 +1694,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1723,7 +1736,7 @@
         <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1744,7 +1757,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1763,7 +1776,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1784,7 +1797,7 @@
         <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1805,7 +1818,7 @@
         <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1826,7 +1839,7 @@
         <v>56</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1847,7 +1860,7 @@
         <v>56</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1868,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1889,7 +1902,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1910,13 +1923,13 @@
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>52</v>
@@ -1931,13 +1944,13 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>15</v>
@@ -1949,16 +1962,16 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>15</v>
@@ -1970,16 +1983,16 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>15</v>
@@ -1994,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2017,7 +2030,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2038,13 +2051,13 @@
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>52</v>
@@ -2059,7 +2072,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arketyper.no" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="89">
   <si>
     <t>Type</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Oversettelse til norsk klar men ikke godkjent</t>
   </si>
   <si>
-    <t>Ikke godkjent</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>nb</t>
-  </si>
-  <si>
-    <t>Ikke lastet opp</t>
   </si>
   <si>
     <t>meldt 05.02.15</t>
@@ -429,10 +423,6 @@
     <t>Skal ikke meldes til godkjenning. Kun midlertidig. Vil bli en activity i procedure request.</t>
   </si>
   <si>
-    <t>nb
-no</t>
-  </si>
-  <si>
     <r>
       <t>Ønsket helsepersonell
 ID:</t>
@@ -459,9 +449,6 @@
     <t>Foreligger kun på engelsk.</t>
   </si>
   <si>
-    <t>Ikke godkjent.</t>
-  </si>
-  <si>
     <t>Må importeres på nytt når oversettelsen i arketyper.no er godkjent.</t>
   </si>
   <si>
@@ -511,12 +498,6 @@
 ID: properative evaluation anesthesia</t>
   </si>
   <si>
-    <t>Adverse reaction FHIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finnes kun på engelsk. </t>
-  </si>
-  <si>
     <t>Viktig informasjon prosedyre
 ID: important information procedure</t>
   </si>
@@ -529,19 +510,7 @@
 ID: preopertaive clarifications</t>
   </si>
   <si>
-    <t>Må lastes opp i arketyper.no 
-Må oversettes til engelsk?</t>
-  </si>
-  <si>
-    <t>Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction </t>
-  </si>
-  <si>
-    <t>Må lastes opp i arketyper.no 
-Må meldes til godkjenning
-Må oversettes til engelsk.</t>
   </si>
   <si>
     <t>Check list</t>
@@ -561,13 +530,38 @@
     <t>Redigeres for tiden</t>
   </si>
   <si>
-    <t>Oversatt og endringer foreslått. Må diskuteres internt</t>
-  </si>
-  <si>
     <t>meldt 07.03.15 med oversettelse</t>
   </si>
   <si>
     <t xml:space="preserve">meldt 07.03.15 </t>
+  </si>
+  <si>
+    <t>Meldt 10.03</t>
+  </si>
+  <si>
+    <t>Må oversettes til engelsk.</t>
+  </si>
+  <si>
+    <t>Meldt 10.03.15</t>
+  </si>
+  <si>
+    <t>OK. Inkubator: operasjonsplanlegging</t>
+  </si>
+  <si>
+    <t>OK. Inkubator: innkomstjournal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb
+</t>
+  </si>
+  <si>
+    <t>Skal ikke meldes til godkjenning, brukes kun i påvente av at action tas i bruk.</t>
+  </si>
+  <si>
+    <t>meldt 10.03.15</t>
+  </si>
+  <si>
+    <t>Må oversettes til engelsk?</t>
   </si>
 </sst>
 </file>
@@ -886,15 +880,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -928,9 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -938,6 +920,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,25 +1235,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1270,22 +1264,22 @@
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>45</v>
+      <c r="C2" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="27"/>
+        <v>61</v>
+      </c>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -1294,378 +1288,357 @@
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>45</v>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>21</v>
+      <c r="A8" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>21</v>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>23</v>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>27</v>
-      </c>
+      <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>37</v>
+      <c r="C13" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>37</v>
+      <c r="C14" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="C18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="F18" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,401 +1650,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="20" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="20"/>
+    <col min="1" max="1" width="11.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="19" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="7" t="s">
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="G8" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="36" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35"/>
+      <c r="B10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C16" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7" t="s">
+      <c r="D18" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>81</v>
       </c>
     </row>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="5655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Arketyper.no" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
   <si>
     <t>Type</t>
   </si>
@@ -120,37 +120,8 @@
     <t>nb</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mangler DIPS endring </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Endring sendt 09.02.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">ok  
 </t>
-  </si>
-  <si>
-    <t>ok
-Endring: lagt til to felt for ønsket tidspunkt for gjenomføring og tiddligst mulig dato for gjennomføring.</t>
   </si>
   <si>
     <r>
@@ -397,9 +368,6 @@
     <t>OK. Inkubator: operasjonsplanlegging</t>
   </si>
   <si>
-    <t>OK. Inkubator: innkomstjournal</t>
-  </si>
-  <si>
     <t xml:space="preserve">nb
 </t>
   </si>
@@ -407,34 +375,7 @@
     <t>Venter på avklaring</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Medikamenter ved kirurgi
-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>medicine surgery</t>
-    </r>
-  </si>
-  <si>
-    <t>Endringer må lastes opp</t>
-  </si>
-  <si>
-    <t>Fjernes fra inkubator</t>
-  </si>
-  <si>
     <t>Skal ikke meldes til godkjenning, brukes kun i påvente av rett bestilling/instruction per tiden ikke i bruk</t>
-  </si>
-  <si>
-    <t>Sjekk, fjern evt.</t>
   </si>
   <si>
     <r>
@@ -458,40 +399,22 @@
     <t>Trekes tilbake, brukes ikke</t>
   </si>
   <si>
-    <t>Meldes til vudering og diskusjon</t>
-  </si>
-  <si>
     <t>Fjernet og erstattet med funn ved klinisk undersøkelse</t>
   </si>
   <si>
     <t>Fjernet og erstattet med cluster med samme navn</t>
   </si>
   <si>
-    <t>sjekk hvor og om det ligger i CKM</t>
-  </si>
-  <si>
     <t>Erstatter observation med samme navn</t>
   </si>
   <si>
-    <t>Last opp oppdatert versjon</t>
-  </si>
-  <si>
     <t>Meld på nytt til diskusjon og vurdering</t>
   </si>
   <si>
     <t>Anesthesia plan, observation</t>
   </si>
   <si>
-    <t>Planned anesthesia, cluster</t>
-  </si>
-  <si>
     <t>Mallampati, observation</t>
-  </si>
-  <si>
-    <t>Last opp i inkubator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last opp </t>
   </si>
   <si>
     <r>
@@ -516,9 +439,6 @@
 ID: important information</t>
   </si>
   <si>
-    <t>Last opp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meldes </t>
   </si>
   <si>
@@ -547,13 +467,50 @@
   </si>
   <si>
     <t>under høring internasjonalt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Medikamenter ved kirurgi
+ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medicine surgery</t>
+    </r>
+  </si>
+  <si>
+    <t>Usikker hvordan denne skal brukes. Satt på vent</t>
+  </si>
+  <si>
+    <t>OK. Inkubator: fjernet</t>
+  </si>
+  <si>
+    <t>Meldes</t>
+  </si>
+  <si>
+    <t>OK. Ligger ikke i inkubator.</t>
+  </si>
+  <si>
+    <t>OK. Meldt til nasjonal IKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,20 +537,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -656,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,14 +618,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -812,18 +749,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -831,6 +804,66 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -841,7 +874,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -876,15 +909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -903,67 +930,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,155 +1338,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="21.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:61" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:61" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="21"/>
+      <c r="F2" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:61" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="22"/>
+      <c r="F3" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:61" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>93</v>
+      <c r="E4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:61" s="10" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>98</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:61" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>31</v>
+      <c r="C6" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="E6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:61" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>39</v>
+      <c r="C7" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
@@ -1404,77 +1821,132 @@
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="F7" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="40" t="s">
+      <c r="C10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>93</v>
+      <c r="E10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>31</v>
+      <c r="C11" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
@@ -1482,93 +1954,313 @@
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>92</v>
+      <c r="F11" s="50" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:61" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>31</v>
+      <c r="C12" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="F12" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:61" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>31</v>
+      <c r="C13" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="F13" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:61" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>31</v>
+      <c r="C14" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+    </row>
+    <row r="15" spans="1:61" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>31</v>
+      <c r="C15" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="22"/>
+      <c r="F15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:61" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>31</v>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>16</v>
@@ -1576,18 +2268,73 @@
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="F16" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1596,57 +2343,112 @@
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>92</v>
+      <c r="F17" s="50" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" s="10" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="58" t="s">
         <v>92</v>
       </c>
+      <c r="D19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="20"/>
+    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1656,441 +2458,2140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:CF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.46484375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="11.53125" style="17"/>
+    <col min="1" max="1" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="16.899999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:84" s="22" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="31"/>
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="31"/>
+      <c r="BU1" s="31"/>
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="31"/>
+      <c r="BX1" s="31"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="31"/>
+      <c r="CE1" s="31"/>
+      <c r="CF1" s="31"/>
     </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="32"/>
+      <c r="BQ2" s="32"/>
+      <c r="BR2" s="32"/>
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
+      <c r="BU2" s="32"/>
+      <c r="BV2" s="32"/>
+      <c r="BW2" s="32"/>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="32"/>
+      <c r="BZ2" s="32"/>
+      <c r="CA2" s="32"/>
+      <c r="CB2" s="32"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
+      <c r="CE2" s="32"/>
+      <c r="CF2" s="32"/>
+    </row>
+    <row r="3" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+    </row>
+    <row r="4" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+    </row>
+    <row r="5" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+    </row>
+    <row r="6" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="32"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="32"/>
+      <c r="CB6" s="32"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
+      <c r="CE6" s="32"/>
+      <c r="CF6" s="32"/>
+    </row>
+    <row r="7" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="32"/>
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="32"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="32"/>
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="32"/>
+      <c r="BV7" s="32"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="32"/>
+      <c r="BY7" s="32"/>
+      <c r="BZ7" s="32"/>
+      <c r="CA7" s="32"/>
+      <c r="CB7" s="32"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="32"/>
+      <c r="CE7" s="32"/>
+      <c r="CF7" s="32"/>
+    </row>
+    <row r="8" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="C8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="32"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="32"/>
+      <c r="BY8" s="32"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="32"/>
+      <c r="CF8" s="32"/>
+    </row>
+    <row r="9" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32"/>
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32"/>
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32"/>
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32"/>
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32"/>
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32"/>
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+    </row>
+    <row r="10" spans="1:84" s="23" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36"/>
+      <c r="B10" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="32"/>
+      <c r="BD10" s="32"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="32"/>
+      <c r="BG10" s="32"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="32"/>
+      <c r="BJ10" s="32"/>
+      <c r="BK10" s="32"/>
+      <c r="BL10" s="32"/>
+      <c r="BM10" s="32"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="32"/>
+      <c r="BP10" s="32"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="32"/>
+      <c r="BS10" s="32"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="32"/>
+      <c r="BV10" s="32"/>
+      <c r="BW10" s="32"/>
+      <c r="BX10" s="32"/>
+      <c r="BY10" s="32"/>
+      <c r="BZ10" s="32"/>
+      <c r="CA10" s="32"/>
+      <c r="CB10" s="32"/>
+      <c r="CC10" s="32"/>
+      <c r="CD10" s="32"/>
+      <c r="CE10" s="32"/>
+      <c r="CF10" s="32"/>
+    </row>
+    <row r="11" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="32"/>
+      <c r="BG11" s="32"/>
+      <c r="BH11" s="32"/>
+      <c r="BI11" s="32"/>
+      <c r="BJ11" s="32"/>
+      <c r="BK11" s="32"/>
+      <c r="BL11" s="32"/>
+      <c r="BM11" s="32"/>
+      <c r="BN11" s="32"/>
+      <c r="BO11" s="32"/>
+      <c r="BP11" s="32"/>
+      <c r="BQ11" s="32"/>
+      <c r="BR11" s="32"/>
+      <c r="BS11" s="32"/>
+      <c r="BT11" s="32"/>
+      <c r="BU11" s="32"/>
+      <c r="BV11" s="32"/>
+      <c r="BW11" s="32"/>
+      <c r="BX11" s="32"/>
+      <c r="BY11" s="32"/>
+      <c r="BZ11" s="32"/>
+      <c r="CA11" s="32"/>
+      <c r="CB11" s="32"/>
+      <c r="CC11" s="32"/>
+      <c r="CD11" s="32"/>
+      <c r="CE11" s="32"/>
+      <c r="CF11" s="32"/>
+    </row>
+    <row r="12" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="32"/>
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="32"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="32"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="32"/>
+      <c r="BM12" s="32"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="32"/>
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="32"/>
+      <c r="BS12" s="32"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="32"/>
+      <c r="BV12" s="32"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="32"/>
+      <c r="BY12" s="32"/>
+      <c r="BZ12" s="32"/>
+      <c r="CA12" s="32"/>
+      <c r="CB12" s="32"/>
+      <c r="CC12" s="32"/>
+      <c r="CD12" s="32"/>
+      <c r="CE12" s="32"/>
+      <c r="CF12" s="32"/>
+    </row>
+    <row r="13" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="E13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="32"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="32"/>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="32"/>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="32"/>
+      <c r="BY13" s="32"/>
+      <c r="BZ13" s="32"/>
+      <c r="CA13" s="32"/>
+      <c r="CB13" s="32"/>
+      <c r="CC13" s="32"/>
+      <c r="CD13" s="32"/>
+      <c r="CE13" s="32"/>
+      <c r="CF13" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="26" t="s">
+    <row r="14" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="32"/>
+      <c r="BL14" s="32"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="32"/>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="32"/>
+      <c r="BS14" s="32"/>
+      <c r="BT14" s="32"/>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="32"/>
+      <c r="BX14" s="32"/>
+      <c r="BY14" s="32"/>
+      <c r="BZ14" s="32"/>
+      <c r="CA14" s="32"/>
+      <c r="CB14" s="32"/>
+      <c r="CC14" s="32"/>
+      <c r="CD14" s="32"/>
+      <c r="CE14" s="32"/>
+      <c r="CF14" s="32"/>
+    </row>
+    <row r="15" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="32"/>
+      <c r="BL15" s="32"/>
+      <c r="BM15" s="32"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="32"/>
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="32"/>
+      <c r="BS15" s="32"/>
+      <c r="BT15" s="32"/>
+      <c r="BU15" s="32"/>
+      <c r="BV15" s="32"/>
+      <c r="BW15" s="32"/>
+      <c r="BX15" s="32"/>
+      <c r="BY15" s="32"/>
+      <c r="BZ15" s="32"/>
+      <c r="CA15" s="32"/>
+      <c r="CB15" s="32"/>
+      <c r="CC15" s="32"/>
+      <c r="CD15" s="32"/>
+      <c r="CE15" s="32"/>
+      <c r="CF15" s="32"/>
+    </row>
+    <row r="16" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="32"/>
+      <c r="BL16" s="32"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="32"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="32"/>
+      <c r="BT16" s="32"/>
+      <c r="BU16" s="32"/>
+      <c r="BV16" s="32"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="32"/>
+      <c r="BY16" s="32"/>
+      <c r="BZ16" s="32"/>
+      <c r="CA16" s="32"/>
+      <c r="CB16" s="32"/>
+      <c r="CC16" s="32"/>
+      <c r="CD16" s="32"/>
+      <c r="CE16" s="32"/>
+      <c r="CF16" s="32"/>
+    </row>
+    <row r="17" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="32"/>
+      <c r="BI17" s="32"/>
+      <c r="BJ17" s="32"/>
+      <c r="BK17" s="32"/>
+      <c r="BL17" s="32"/>
+      <c r="BM17" s="32"/>
+      <c r="BN17" s="32"/>
+      <c r="BO17" s="32"/>
+      <c r="BP17" s="32"/>
+      <c r="BQ17" s="32"/>
+      <c r="BR17" s="32"/>
+      <c r="BS17" s="32"/>
+      <c r="BT17" s="32"/>
+      <c r="BU17" s="32"/>
+      <c r="BV17" s="32"/>
+      <c r="BW17" s="32"/>
+      <c r="BX17" s="32"/>
+      <c r="BY17" s="32"/>
+      <c r="BZ17" s="32"/>
+      <c r="CA17" s="32"/>
+      <c r="CB17" s="32"/>
+      <c r="CC17" s="32"/>
+      <c r="CD17" s="32"/>
+      <c r="CE17" s="32"/>
+      <c r="CF17" s="32"/>
+    </row>
+    <row r="18" spans="1:84" s="23" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
+      <c r="BA18" s="32"/>
+      <c r="BB18" s="32"/>
+      <c r="BC18" s="32"/>
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="32"/>
+      <c r="BF18" s="32"/>
+      <c r="BG18" s="32"/>
+      <c r="BH18" s="32"/>
+      <c r="BI18" s="32"/>
+      <c r="BJ18" s="32"/>
+      <c r="BK18" s="32"/>
+      <c r="BL18" s="32"/>
+      <c r="BM18" s="32"/>
+      <c r="BN18" s="32"/>
+      <c r="BO18" s="32"/>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="32"/>
+      <c r="CA18" s="32"/>
+      <c r="CB18" s="32"/>
+      <c r="CC18" s="32"/>
+      <c r="CD18" s="32"/>
+      <c r="CE18" s="32"/>
+      <c r="CF18" s="32"/>
+    </row>
+    <row r="19" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="32"/>
+      <c r="AY19" s="32"/>
+      <c r="AZ19" s="32"/>
+      <c r="BA19" s="32"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="32"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="32"/>
+      <c r="BF19" s="32"/>
+      <c r="BG19" s="32"/>
+      <c r="BH19" s="32"/>
+      <c r="BI19" s="32"/>
+      <c r="BJ19" s="32"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="32"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="32"/>
+      <c r="BV19" s="32"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="32"/>
+      <c r="BY19" s="32"/>
+      <c r="BZ19" s="32"/>
+      <c r="CA19" s="32"/>
+      <c r="CB19" s="32"/>
+      <c r="CC19" s="32"/>
+      <c r="CD19" s="32"/>
+      <c r="CE19" s="32"/>
+      <c r="CF19" s="32"/>
+    </row>
+    <row r="20" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+      <c r="BA20" s="32"/>
+      <c r="BB20" s="32"/>
+      <c r="BC20" s="32"/>
+      <c r="BD20" s="32"/>
+      <c r="BE20" s="32"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="32"/>
+      <c r="BH20" s="32"/>
+      <c r="BI20" s="32"/>
+      <c r="BJ20" s="32"/>
+      <c r="BK20" s="32"/>
+      <c r="BL20" s="32"/>
+      <c r="BM20" s="32"/>
+      <c r="BN20" s="32"/>
+      <c r="BO20" s="32"/>
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="32"/>
+      <c r="BT20" s="32"/>
+      <c r="BU20" s="32"/>
+      <c r="BV20" s="32"/>
+      <c r="BW20" s="32"/>
+      <c r="BX20" s="32"/>
+      <c r="BY20" s="32"/>
+      <c r="BZ20" s="32"/>
+      <c r="CA20" s="32"/>
+      <c r="CB20" s="32"/>
+      <c r="CC20" s="32"/>
+      <c r="CD20" s="32"/>
+      <c r="CE20" s="32"/>
+      <c r="CF20" s="32"/>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>50</v>
-      </c>
+      <c r="E21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="32"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="32"/>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="32"/>
+      <c r="BS21" s="32"/>
+      <c r="BT21" s="32"/>
+      <c r="BU21" s="32"/>
+      <c r="BV21" s="32"/>
+      <c r="BW21" s="32"/>
+      <c r="BX21" s="32"/>
+      <c r="BY21" s="32"/>
+      <c r="BZ21" s="32"/>
+      <c r="CA21" s="32"/>
+      <c r="CB21" s="32"/>
+      <c r="CC21" s="32"/>
+      <c r="CD21" s="32"/>
+      <c r="CE21" s="32"/>
+      <c r="CF21" s="32"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
-      <c r="B4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="26" t="s">
+    <row r="22" spans="1:84" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
-      <c r="B5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
-      <c r="B6" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
-      <c r="B7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
-      <c r="B8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
-      <c r="B9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
-      <c r="B11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
-      <c r="B13" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
-      <c r="B14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="30"/>
-      <c r="B15" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
-      <c r="B16" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
-      <c r="B18" s="34" t="s">
+      <c r="E22" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="31" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="30"/>
-      <c r="B21" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="26"/>
-      <c r="B22" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
-      <c r="B23" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="32"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="32"/>
+      <c r="BO22" s="32"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BT22" s="32"/>
+      <c r="BU22" s="32"/>
+      <c r="BV22" s="32"/>
+      <c r="BW22" s="32"/>
+      <c r="BX22" s="32"/>
+      <c r="BY22" s="32"/>
+      <c r="BZ22" s="32"/>
+      <c r="CA22" s="32"/>
+      <c r="CB22" s="32"/>
+      <c r="CC22" s="32"/>
+      <c r="CD22" s="32"/>
+      <c r="CE22" s="32"/>
+      <c r="CF22" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="124">
   <si>
     <t>Type</t>
   </si>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>Citation/sitering v1</t>
-  </si>
-  <si>
-    <t>NYHA klassifikasjon</t>
   </si>
   <si>
     <t>Ny versjon med små justeringer 14. august. Ikke lastet opp i vår ckm og ikke tatt i bruk. Avventer at høringer er gjennomført.</t>
@@ -672,6 +669,12 @@
   </si>
   <si>
     <t>Brukes ikke lenger. Aenstesi ny modellert med procedure som utgangspunkt.</t>
+  </si>
+  <si>
+    <t>NYHA klassifikasjon v1</t>
+  </si>
+  <si>
+    <t>Endret til v0 nasjonalt (2.09.15). Denne endringen er ikke tatt inn.</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1213,6 +1216,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1501,7 +1507,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,10 +2051,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>123</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -2057,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -2120,7 +2126,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>10</v>
@@ -2129,10 +2135,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>84</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>85</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
@@ -2207,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2270,16 +2276,16 @@
         <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>65</v>
@@ -2302,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2763,7 +2769,7 @@
         <v>78</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>11</v>
@@ -2965,7 +2971,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>19</v>
@@ -3063,7 +3069,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>19</v>
@@ -3075,7 +3081,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -3161,7 +3167,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>19</v>
@@ -3173,7 +3179,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -3259,7 +3265,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -3271,7 +3277,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -3357,7 +3363,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
@@ -3369,7 +3375,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -3455,7 +3461,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>19</v>
@@ -3467,7 +3473,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -3553,7 +3559,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>19</v>
@@ -3565,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3651,7 +3657,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>19</v>
@@ -3749,7 +3755,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -3761,7 +3767,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3847,7 +3853,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>19</v>
@@ -3859,7 +3865,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3945,7 +3951,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>19</v>
@@ -3957,7 +3963,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -4043,19 +4049,19 @@
         <v>67</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -4141,7 +4147,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>10</v>
@@ -4150,10 +4156,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -4239,7 +4245,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>10</v>
@@ -4248,10 +4254,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -4426,10 +4432,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -4800,10 +4806,10 @@
         <v>67</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>34</v>
@@ -4812,7 +4818,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4820,7 +4826,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>43</v>
@@ -4900,7 +4906,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>43</v>
@@ -4912,7 +4918,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4920,7 +4926,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>43</v>
@@ -4943,7 +4949,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>34</v>
@@ -4963,7 +4969,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>13</v>
@@ -4983,7 +4989,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>13</v>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arketyper.no" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="123">
   <si>
     <t>Type</t>
   </si>
@@ -410,9 +410,6 @@
   </si>
   <si>
     <t>Preoperative evaluation anesthesia</t>
-  </si>
-  <si>
-    <t>Må lastes opp</t>
   </si>
   <si>
     <r>
@@ -585,9 +582,6 @@
     <t>Ikke meldt</t>
   </si>
   <si>
-    <t>Ikke lastet opp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brukes ikke langer. Lagt nytt mønster med nytt navn.
 </t>
   </si>
@@ -675,6 +669,9 @@
   </si>
   <si>
     <t>Endret til v0 nasjonalt (2.09.15). Denne endringen er ikke tatt inn.</t>
+  </si>
+  <si>
+    <t>Ok. Lenke lagt inn som viser til arketypebiblioteket.</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2051,10 +2048,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -2853,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2971,7 +2968,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>19</v>
@@ -2980,7 +2977,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>20</v>
@@ -3064,12 +3061,12 @@
       <c r="CE2" s="19"/>
       <c r="CF2" s="19"/>
     </row>
-    <row r="3" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>19</v>
@@ -3078,7 +3075,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>89</v>
@@ -3162,12 +3159,12 @@
       <c r="CE3" s="19"/>
       <c r="CF3" s="19"/>
     </row>
-    <row r="4" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>19</v>
@@ -3176,10 +3173,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -3260,12 +3257,12 @@
       <c r="CE4" s="19"/>
       <c r="CF4" s="19"/>
     </row>
-    <row r="5" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -3274,7 +3271,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>90</v>
@@ -3363,7 +3360,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
@@ -3372,7 +3369,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>91</v>
@@ -3461,7 +3458,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>19</v>
@@ -3470,7 +3467,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>91</v>
@@ -3554,12 +3551,12 @@
       <c r="CE7" s="19"/>
       <c r="CF7" s="19"/>
     </row>
-    <row r="8" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>19</v>
@@ -3568,7 +3565,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>92</v>
@@ -3652,12 +3649,12 @@
       <c r="CE8" s="19"/>
       <c r="CF8" s="19"/>
     </row>
-    <row r="9" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>19</v>
@@ -3666,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>21</v>
@@ -3750,12 +3747,12 @@
       <c r="CE9" s="19"/>
       <c r="CF9" s="19"/>
     </row>
-    <row r="10" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
@@ -3764,10 +3761,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3848,12 +3845,12 @@
       <c r="CE10" s="19"/>
       <c r="CF10" s="19"/>
     </row>
-    <row r="11" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>19</v>
@@ -3862,10 +3859,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3946,12 +3943,12 @@
       <c r="CE11" s="19"/>
       <c r="CF11" s="19"/>
     </row>
-    <row r="12" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>19</v>
@@ -3960,10 +3957,10 @@
         <v>34</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -4049,19 +4046,19 @@
         <v>67</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -4142,12 +4139,12 @@
       <c r="CE13" s="19"/>
       <c r="CF13" s="19"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>10</v>
@@ -4156,10 +4153,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -4240,7 +4237,7 @@
       <c r="CE14" s="19"/>
       <c r="CF14" s="19"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>70</v>
       </c>
@@ -4254,10 +4251,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -4338,7 +4335,10 @@
       <c r="CE15" s="19"/>
       <c r="CF15" s="19"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E16" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -4418,7 +4418,7 @@
       <c r="CE16" s="19"/>
       <c r="CF16" s="19"/>
     </row>
-    <row r="17" spans="1:84" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>70</v>
       </c>
@@ -4432,10 +4432,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -4806,7 +4806,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>93</v>
@@ -4826,7 +4826,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>43</v>
@@ -4906,7 +4906,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>43</v>
@@ -4926,7 +4926,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>43</v>
@@ -4949,7 +4949,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>34</v>
@@ -4969,7 +4969,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>13</v>
@@ -4989,7 +4989,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>13</v>

--- a/surgery/Arketyper_operasjonsplanlegging_status.xlsx
+++ b/surgery/Arketyper_operasjonsplanlegging_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="5655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arketyper.no" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1041,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1216,6 +1222,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,18 +1519,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="21.33203125" style="2"/>
+    <col min="6" max="6" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="21.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1605,7 @@
       <c r="BH1" s="25"/>
       <c r="BI1" s="25"/>
     </row>
-    <row r="2" spans="1:61" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>67</v>
       </c>
@@ -1668,7 +1680,7 @@
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
     </row>
-    <row r="3" spans="1:61" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>67</v>
       </c>
@@ -1743,7 +1755,7 @@
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
     </row>
-    <row r="4" spans="1:61" s="42" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:61" s="42" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>67</v>
       </c>
@@ -1818,7 +1830,7 @@
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
     </row>
-    <row r="5" spans="1:61" s="42" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" s="42" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>67</v>
       </c>
@@ -1893,7 +1905,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
     </row>
-    <row r="6" spans="1:61" s="42" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" s="42" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>67</v>
       </c>
@@ -1968,7 +1980,7 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
     </row>
-    <row r="7" spans="1:61" s="42" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" s="42" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>67</v>
       </c>
@@ -2043,7 +2055,7 @@
       <c r="BH7" s="41"/>
       <c r="BI7" s="41"/>
     </row>
-    <row r="8" spans="1:61" s="42" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" s="42" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>67</v>
       </c>
@@ -2118,7 +2130,7 @@
       <c r="BH8" s="41"/>
       <c r="BI8" s="41"/>
     </row>
-    <row r="9" spans="1:61" s="42" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>67</v>
       </c>
@@ -2193,7 +2205,7 @@
       <c r="BH9" s="41"/>
       <c r="BI9" s="41"/>
     </row>
-    <row r="10" spans="1:61" s="10" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>68</v>
       </c>
@@ -2268,7 +2280,7 @@
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
     </row>
-    <row r="11" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>68</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>69</v>
       </c>
@@ -2363,7 +2375,7 @@
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
     </row>
-    <row r="13" spans="1:61" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>70</v>
       </c>
@@ -2438,7 +2450,7 @@
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
     </row>
-    <row r="14" spans="1:61" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>70</v>
       </c>
@@ -2513,7 +2525,7 @@
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
     </row>
-    <row r="15" spans="1:61" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>70</v>
       </c>
@@ -2588,7 +2600,7 @@
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
     </row>
-    <row r="16" spans="1:61" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>70</v>
       </c>
@@ -2663,7 +2675,7 @@
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
     </row>
-    <row r="17" spans="1:61" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>70</v>
       </c>
@@ -2738,7 +2750,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>70</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:61" s="10" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" s="10" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +2845,7 @@
       <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="C20" s="56"/>
       <c r="D20" s="57"/>
@@ -2851,21 +2863,21 @@
   <dimension ref="A1:CF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="12"/>
+    <col min="7" max="16384" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="16" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:84" s="16" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2963,11 +2975,11 @@
       <c r="CE1" s="18"/>
       <c r="CF1" s="18"/>
     </row>
-    <row r="2" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="63" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2979,7 +2991,7 @@
       <c r="E2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="62" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="19"/>
@@ -3061,11 +3073,11 @@
       <c r="CE2" s="19"/>
       <c r="CF2" s="19"/>
     </row>
-    <row r="3" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="63" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -3077,7 +3089,7 @@
       <c r="E3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="62" t="s">
         <v>89</v>
       </c>
       <c r="G3" s="19"/>
@@ -3159,7 +3171,7 @@
       <c r="CE3" s="19"/>
       <c r="CF3" s="19"/>
     </row>
-    <row r="4" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>67</v>
       </c>
@@ -3257,7 +3269,7 @@
       <c r="CE4" s="19"/>
       <c r="CF4" s="19"/>
     </row>
-    <row r="5" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>67</v>
       </c>
@@ -3355,11 +3367,11 @@
       <c r="CE5" s="19"/>
       <c r="CF5" s="19"/>
     </row>
-    <row r="6" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="63" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -3371,7 +3383,7 @@
       <c r="E6" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="62" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="19"/>
@@ -3453,11 +3465,11 @@
       <c r="CE6" s="19"/>
       <c r="CF6" s="19"/>
     </row>
-    <row r="7" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="63" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -3469,7 +3481,7 @@
       <c r="E7" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="62" t="s">
         <v>91</v>
       </c>
       <c r="G7" s="19"/>
@@ -3551,7 +3563,7 @@
       <c r="CE7" s="19"/>
       <c r="CF7" s="19"/>
     </row>
-    <row r="8" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>67</v>
       </c>
@@ -3649,11 +3661,11 @@
       <c r="CE8" s="19"/>
       <c r="CF8" s="19"/>
     </row>
-    <row r="9" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="63" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -3665,7 +3677,7 @@
       <c r="E9" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="62" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="19"/>
@@ -3747,7 +3759,7 @@
       <c r="CE9" s="19"/>
       <c r="CF9" s="19"/>
     </row>
-    <row r="10" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>67</v>
       </c>
@@ -3845,7 +3857,7 @@
       <c r="CE10" s="19"/>
       <c r="CF10" s="19"/>
     </row>
-    <row r="11" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>67</v>
       </c>
@@ -3943,7 +3955,7 @@
       <c r="CE11" s="19"/>
       <c r="CF11" s="19"/>
     </row>
-    <row r="12" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>67</v>
       </c>
@@ -4041,7 +4053,7 @@
       <c r="CE12" s="19"/>
       <c r="CF12" s="19"/>
     </row>
-    <row r="13" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>67</v>
       </c>
@@ -4139,7 +4151,7 @@
       <c r="CE13" s="19"/>
       <c r="CF13" s="19"/>
     </row>
-    <row r="14" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>67</v>
       </c>
@@ -4237,7 +4249,7 @@
       <c r="CE14" s="19"/>
       <c r="CF14" s="19"/>
     </row>
-    <row r="15" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>70</v>
       </c>
@@ -4335,7 +4347,7 @@
       <c r="CE15" s="19"/>
       <c r="CF15" s="19"/>
     </row>
-    <row r="16" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="E16" s="15" t="s">
         <v>122</v>
       </c>
@@ -4418,7 +4430,7 @@
       <c r="CE16" s="19"/>
       <c r="CF16" s="19"/>
     </row>
-    <row r="17" spans="1:84" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>70</v>
       </c>
@@ -4516,7 +4528,7 @@
       <c r="CE17" s="19"/>
       <c r="CF17" s="19"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -4610,18 +4622,18 @@
       <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="47" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="47"/>
+    <col min="1" max="1" width="13.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="47" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>67</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>69</v>
       </c>
@@ -4681,7 +4693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>69</v>
       </c>
@@ -4701,7 +4713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>69</v>
       </c>
@@ -4721,7 +4733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>69</v>
       </c>
@@ -4741,7 +4753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>70</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>70</v>
       </c>
@@ -4781,7 +4793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>70</v>
       </c>
@@ -4801,7 +4813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>67</v>
       </c>
@@ -4821,7 +4833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>67</v>
       </c>
@@ -4841,7 +4853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>67</v>
       </c>
@@ -4861,7 +4873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>67</v>
       </c>
@@ -4881,7 +4893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>67</v>
       </c>
@@ -4901,7 +4913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>70</v>
       </c>
@@ -4921,7 +4933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>70</v>
       </c>
@@ -4941,7 +4953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>70</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>70</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>70</v>
       </c>
